--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,262 +423,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-323407.6890445735</v>
+        <v>0.202886707818579</v>
       </c>
       <c r="B1" t="n">
-        <v>-323410.0391139428</v>
+        <v>-0.01986466890848812</v>
       </c>
       <c r="C1" t="n">
-        <v>-323405.4526146802</v>
+        <v>1.376669968070769</v>
       </c>
       <c r="D1" t="n">
-        <v>-323407.2798685004</v>
+        <v>0.2139908537329471</v>
       </c>
       <c r="E1" t="n">
-        <v>-323406.5433348238</v>
+        <v>1.570796379327078</v>
       </c>
       <c r="F1" t="n">
-        <v>-323406.1182482542</v>
+        <v>-1.367909666075958</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-323407.6850489518</v>
+        <v>0.2483787665506595</v>
       </c>
       <c r="B2" t="n">
-        <v>-323410.0391131088</v>
+        <v>-0.01986772926019229</v>
       </c>
       <c r="C2" t="n">
-        <v>-323405.4526151004</v>
+        <v>1.376688281609331</v>
       </c>
       <c r="D2" t="n">
-        <v>-323407.2798689143</v>
+        <v>0.2139756031505863</v>
       </c>
       <c r="E2" t="n">
-        <v>-323406.5433348238</v>
+        <v>1.570796379392748</v>
       </c>
       <c r="F2" t="n">
-        <v>-323406.1142526325</v>
+        <v>-1.322417608204078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-323407.6611699046</v>
+        <v>0.4522133501513073</v>
       </c>
       <c r="B3" t="n">
-        <v>-323410.0391081246</v>
+        <v>-0.01988144166478938</v>
       </c>
       <c r="C3" t="n">
-        <v>-323405.4526176111</v>
+        <v>1.376770338403657</v>
       </c>
       <c r="D3" t="n">
-        <v>-323407.2798713876</v>
+        <v>0.2139072704307262</v>
       </c>
       <c r="E3" t="n">
-        <v>-323406.5433348237</v>
+        <v>1.57079637968699</v>
       </c>
       <c r="F3" t="n">
-        <v>-323406.0903735851</v>
+        <v>-1.118583028457701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-323407.607749768</v>
+        <v>0.7389892563021565</v>
       </c>
       <c r="B4" t="n">
-        <v>-323410.0390969744</v>
+        <v>-0.01990073371613993</v>
       </c>
       <c r="C4" t="n">
-        <v>-323405.4526232278</v>
+        <v>1.376885784522431</v>
       </c>
       <c r="D4" t="n">
-        <v>-323407.2798769209</v>
+        <v>0.2138111327816999</v>
       </c>
       <c r="E4" t="n">
-        <v>-323406.5433348237</v>
+        <v>1.570796380100961</v>
       </c>
       <c r="F4" t="n">
-        <v>-323406.0369534483</v>
+        <v>-0.8318071277294455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-323407.5242204443</v>
+        <v>0.9428238399028049</v>
       </c>
       <c r="B5" t="n">
-        <v>-323410.0390795395</v>
+        <v>-0.01991444612073703</v>
       </c>
       <c r="C5" t="n">
-        <v>-323405.4526320104</v>
+        <v>1.376967841316757</v>
       </c>
       <c r="D5" t="n">
-        <v>-323407.2798855727</v>
+        <v>0.2137428000618398</v>
       </c>
       <c r="E5" t="n">
-        <v>-323406.5433348235</v>
+        <v>1.570796380395203</v>
       </c>
       <c r="F5" t="n">
-        <v>-323405.9534241242</v>
+        <v>-0.627972547983068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-323407.4168310098</v>
+        <v>0.9883158986348846</v>
       </c>
       <c r="B6" t="n">
-        <v>-323410.0390571244</v>
+        <v>-0.01991750647244119</v>
       </c>
       <c r="C6" t="n">
-        <v>-323405.4526433017</v>
+        <v>1.376986154855319</v>
       </c>
       <c r="D6" t="n">
-        <v>-323407.279896696</v>
+        <v>0.2137275494794789</v>
       </c>
       <c r="E6" t="n">
-        <v>-323406.5433348233</v>
+        <v>1.570796380460873</v>
       </c>
       <c r="F6" t="n">
-        <v>-323405.8460346893</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-323407.2963753244</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-323410.039031982</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-323405.4526559669</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-323407.2799091727</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-323406.5433348232</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-323405.7255790033</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-323407.1759196389</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-323410.0390068396</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-323405.452668632</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-323407.2799216494</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-323406.543334823</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-323405.6051233174</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-323407.0685302045</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-323410.0389844245</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-323405.4526799233</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-323407.2799327727</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-323406.5433348228</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-323405.4977338825</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-323406.9850008807</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-323410.0389669897</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-323405.4526887059</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-323407.2799414246</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-323406.5433348226</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-323405.4142045584</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-323406.9315807442</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-323410.0389558394</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-323405.4526943227</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-323407.2799469578</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-323406.5433348226</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-323405.3607844216</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-323406.9077016969</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-323410.0389508552</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-323405.4526968334</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-323407.2799494312</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-323406.5433348225</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-323405.3369053742</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-323406.9037060752</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-323410.0389500212</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-323405.4526972536</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-323407.279949845</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-323406.5433348225</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-323405.3329097526</v>
+        <v>-0.5824804901111889</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -423,122 +423,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.202886707818579</v>
+        <v>0.2028864896758006</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.01986466890848812</v>
+        <v>0.002539495620456482</v>
       </c>
       <c r="C1" t="n">
-        <v>1.376669968070769</v>
+        <v>1.379316785363834</v>
       </c>
       <c r="D1" t="n">
-        <v>0.2139908537329471</v>
+        <v>0.188939888900502</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796379327078</v>
+        <v>1.570796384046431</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.367909666075958</v>
+        <v>-1.367909888287239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2483787665506595</v>
+        <v>0.2484977296296271</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01986772926019229</v>
+        <v>0.002377709119405816</v>
       </c>
       <c r="C2" t="n">
-        <v>1.376688281609331</v>
+        <v>1.380518500463224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2139756031505863</v>
+        <v>0.1878999627744357</v>
       </c>
       <c r="E2" t="n">
-        <v>1.570796379392748</v>
+        <v>1.570796384423863</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.322417608204078</v>
+        <v>-1.322298649847111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4522133501513073</v>
+        <v>0.4528663241188721</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01988144166478938</v>
+        <v>0.001652798332930176</v>
       </c>
       <c r="C3" t="n">
-        <v>1.376770338403657</v>
+        <v>1.385902980825687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2139072704307262</v>
+        <v>0.1832404042758736</v>
       </c>
       <c r="E3" t="n">
-        <v>1.57079637968699</v>
+        <v>1.570796386115009</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.118583028457701</v>
+        <v>-1.117930062140237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7389892563021565</v>
+        <v>0.7403935328885739</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01990073371613993</v>
+        <v>0.0006329176826605036</v>
       </c>
       <c r="C4" t="n">
-        <v>1.376885784522431</v>
+        <v>1.393478433468806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2138111327816999</v>
+        <v>0.1766848478679089</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796380100961</v>
+        <v>1.570796388494291</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8318071277294455</v>
+        <v>-0.8304028629126882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9428238399028049</v>
+        <v>0.9447621273778194</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01991444612073703</v>
+        <v>-9.199310381513776e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.376967841316757</v>
+        <v>1.398862913831269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2137428000618398</v>
+        <v>0.1720252893693467</v>
       </c>
       <c r="E5" t="n">
-        <v>1.570796380395203</v>
+        <v>1.570796390185437</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.627972547983068</v>
+        <v>-0.6260342752058142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9883158986348846</v>
+        <v>0.9903733673316449</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01991750647244119</v>
+        <v>-0.0002537796048658041</v>
       </c>
       <c r="C6" t="n">
-        <v>1.376986154855319</v>
+        <v>1.40006462893066</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2137275494794789</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796380460873</v>
+        <v>1.570796390562869</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5824804901111889</v>
+        <v>-0.5804230367656862</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,121 +423,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>0.2028864896758006</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>0.002539495620456482</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1.379316785363834</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.188939888900502</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796384046431</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>-1.367909888287239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.221347107536837</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.2484977296296271</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.002377709119405816</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.380518500463224</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1878999627744357</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.570796384423863</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-1.322298649847111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4426942150736741</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.4528663241188721</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.001652798332930176</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.385902980825687</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1832404042758736</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796386115009</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-1.117930062140237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6640413226105111</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.7403935328885739</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.0006329176826605036</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.393478433468806</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.1766848478679089</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.570796388494291</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.8304028629126882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8853884301473481</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.9447621273778194</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>-9.199310381513776e-05</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.398862913831269</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.1720252893693467</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796390185437</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.6260342752058142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.106735537684185</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.9903733673316449</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>-0.0002537796048658041</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.40006462893066</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.1709853632432805</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796390562869</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.5804230367656862</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -426,137 +426,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.2028864896758006</v>
+        <v>-0.9903733673316458</v>
       </c>
       <c r="C1" t="n">
-        <v>0.002539495620456482</v>
+        <v>1.571050106399762</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379316785363834</v>
+        <v>1.40006462893066</v>
       </c>
       <c r="E1" t="n">
-        <v>0.188939888900502</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796384046431</v>
+        <v>-6.376797268003997e-08</v>
       </c>
       <c r="G1" t="n">
-        <v>-1.367909888287239</v>
+        <v>-0.5804230367656859</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.221347107536837</v>
+        <v>0.2201727783259728</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2484977296296271</v>
+        <v>-1.03574262259447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002377709119405816</v>
+        <v>1.570888293771327</v>
       </c>
       <c r="D2" t="n">
-        <v>1.380518500463224</v>
+        <v>1.398862850774126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1878999627744357</v>
+        <v>0.1720253258411236</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796384423863</v>
+        <v>-6.404858376996003e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.322298649847111</v>
+        <v>-0.5350537819232115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4426942150736741</v>
+        <v>0.4403455566519455</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4528663241188721</v>
+        <v>-1.239026965236186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001652798332930176</v>
+        <v>1.570163265916846</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385902980825687</v>
+        <v>1.393478087873858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1832404042758736</v>
+        <v>0.1766850477574261</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796386115009</v>
+        <v>-6.530590779263434e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.117930062140237</v>
+        <v>-0.3317694411649427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6640413226105111</v>
+        <v>0.6605183349779182</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7403935328885739</v>
+        <v>-1.525028734600179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006329176826605036</v>
+        <v>1.569143220563007</v>
       </c>
       <c r="D4" t="n">
-        <v>1.393478433468806</v>
+        <v>1.385902237726871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1766848478679089</v>
+        <v>0.1832408340786359</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796388494291</v>
+        <v>-6.707484301315958e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8304028629126882</v>
+        <v>-0.04576767445078167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8853884301473481</v>
+        <v>0.880691113303891</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9447621273778194</v>
+        <v>-1.728313077241895</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.199310381513776e-05</v>
+        <v>1.568418192708525</v>
       </c>
       <c r="D5" t="n">
-        <v>1.398862913831269</v>
+        <v>1.380517474826603</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1720252893693467</v>
+        <v>0.1879005559949384</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796390185437</v>
+        <v>-6.833216703583389e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6260342752058142</v>
+        <v>0.1575166663074876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.106735537684185</v>
+        <v>1.100863891629864</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9903733673316449</v>
+        <v>-1.77368233250472</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002537796048658041</v>
+        <v>1.56825638008009</v>
       </c>
       <c r="D6" t="n">
-        <v>1.40006462893066</v>
+        <v>1.379315696670069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1709853632432805</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796390562869</v>
+        <v>-6.861277812575395e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5804230367656862</v>
+        <v>0.2028859211499613</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -435,10 +435,10 @@
         <v>1.40006462893066</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1709853632432805</v>
+        <v>1.399810963551616</v>
       </c>
       <c r="F1" t="n">
-        <v>-6.376797268003997e-08</v>
+        <v>-1.570796390562869</v>
       </c>
       <c r="G1" t="n">
         <v>-0.5804230367656859</v>
@@ -458,10 +458,10 @@
         <v>1.398862850774126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1720253258411236</v>
+        <v>1.398771000953773</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.404858376996003e-08</v>
+        <v>-1.57079639084348</v>
       </c>
       <c r="G2" t="n">
         <v>-0.5350537819232115</v>
@@ -481,10 +481,10 @@
         <v>1.393478087873858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1766850477574261</v>
+        <v>1.394111279037471</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.530590779263434e-08</v>
+        <v>-1.570796392100804</v>
       </c>
       <c r="G3" t="n">
         <v>-0.3317694411649427</v>
@@ -504,10 +504,10 @@
         <v>1.385902237726871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1832408340786359</v>
+        <v>1.387555492716261</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.707484301315958e-08</v>
+        <v>-1.57079639386974</v>
       </c>
       <c r="G4" t="n">
         <v>-0.04576767445078167</v>
@@ -527,10 +527,10 @@
         <v>1.380517474826603</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1879005559949384</v>
+        <v>1.382895770799958</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.833216703583389e-08</v>
+        <v>-1.570796395127064</v>
       </c>
       <c r="G5" t="n">
         <v>0.1575166663074876</v>
@@ -550,10 +550,10 @@
         <v>1.379315696670069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1889405185927815</v>
+        <v>1.381855808202115</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.861277812575395e-08</v>
+        <v>-1.570796395407675</v>
       </c>
       <c r="G6" t="n">
         <v>0.2028859211499613</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.9903733673316458</v>
+        <v>0.9903733673316458</v>
       </c>
       <c r="C1" t="n">
-        <v>1.571050106399762</v>
+        <v>-0.0002537796048658035</v>
       </c>
       <c r="D1" t="n">
-        <v>1.40006462893066</v>
+        <v>-1.40006462893066</v>
       </c>
       <c r="E1" t="n">
-        <v>1.399810963551616</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796390562869</v>
+        <v>1.570796390562869</v>
       </c>
       <c r="G1" t="n">
         <v>-0.5804230367656859</v>
@@ -446,116 +446,369 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2201727783259728</v>
+        <v>0.2064119796805995</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.03574262259447</v>
+        <v>0.9921109396706966</v>
       </c>
       <c r="C2" t="n">
-        <v>1.570888293771327</v>
+        <v>-0.0002475824313470903</v>
       </c>
       <c r="D2" t="n">
-        <v>1.398862850774126</v>
+        <v>-1.400018602685125</v>
       </c>
       <c r="E2" t="n">
-        <v>1.398771000953773</v>
+        <v>0.1710251922030726</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.57079639084348</v>
+        <v>1.570796390573616</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5350537819232115</v>
+        <v>-0.5786854644427337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4403455566519455</v>
+        <v>0.412823959361199</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.239026965236186</v>
+        <v>1.002947235608045</v>
       </c>
       <c r="C3" t="n">
-        <v>1.570163265916846</v>
+        <v>-0.000208934022463834</v>
       </c>
       <c r="D3" t="n">
-        <v>1.393478087873858</v>
+        <v>-1.39973156196383</v>
       </c>
       <c r="E3" t="n">
-        <v>1.394111279037471</v>
+        <v>0.1712735838156022</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796392100804</v>
+        <v>1.570796390640639</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3317694411649427</v>
+        <v>-0.567849168605785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6605183349779182</v>
+        <v>0.6192359390417985</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.525028734600179</v>
+        <v>1.02857456005494</v>
       </c>
       <c r="C4" t="n">
-        <v>1.569143220563007</v>
+        <v>-0.0001175323738254093</v>
       </c>
       <c r="D4" t="n">
-        <v>1.385902237726871</v>
+        <v>-1.399052724311498</v>
       </c>
       <c r="E4" t="n">
-        <v>1.387555492716261</v>
+        <v>0.1718610181641091</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.57079639386974</v>
+        <v>1.570796390799146</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04576767445078167</v>
+        <v>-0.5422218443963294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.880691113303891</v>
+        <v>0.825647918722398</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.728313077241895</v>
+        <v>1.07145808442964</v>
       </c>
       <c r="C5" t="n">
-        <v>1.568418192708525</v>
+        <v>3.541472119404524e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>1.380517474826603</v>
+        <v>-1.397916790239622</v>
       </c>
       <c r="E5" t="n">
-        <v>1.382895770799958</v>
+        <v>0.1728440023712562</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796395127064</v>
+        <v>1.570796391064382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1575166663074876</v>
+        <v>-0.4993383204189489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.100863891629864</v>
+        <v>1.032059898402997</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.77368233250472</v>
+        <v>1.131373702239576</v>
       </c>
       <c r="C6" t="n">
-        <v>1.56825638008009</v>
+        <v>0.0002491079710830877</v>
       </c>
       <c r="D6" t="n">
-        <v>1.379315696670069</v>
+        <v>-1.396329696065339</v>
       </c>
       <c r="E6" t="n">
-        <v>1.381855808202115</v>
+        <v>0.1742173994258922</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796395407675</v>
+        <v>1.570796391434963</v>
       </c>
       <c r="G6" t="n">
+        <v>-0.4394227031641362</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.238471878083597</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.205945884663518</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0005150748858204336</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.394354366750301</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1759267570098149</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.570796391896196</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.3648505214311121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.444883857764196</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.291185536133739</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0008190880765024157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.392096468739544</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1778806363245333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.570796392423408</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2796108707506437</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.651295837444796</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.382027849918183</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001143083554970447</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.389690162800365</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.179962940918031</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.570796392985272</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.1887685578078621</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.857707817125395</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.472870163702626</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001467079033438478</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.387283856861185</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1820452455115286</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.570796393547136</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.09792624486508039</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.064119796805995</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.558109815172848</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00177109222412046</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.385025958850429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.183999124826247</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.570796394074348</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.01268659418461193</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.270531776486594</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.632681997596789</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.002037059138857806</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.38305062953539</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1857084824101697</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.570796394535581</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.061885587548412</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.476943756167194</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.692597615406726</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002250752388746849</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.381463535361107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1870818794648058</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.570796394906162</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1218012048032248</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.683355735847794</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.735481139781426</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002403699483766303</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.380327601289231</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1880648636719529</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.570796395171398</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.164684728780605</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.889767715528393</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.761108464228321</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002495101132404725</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.379648763636899</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1886522980204598</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.570796395329905</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.190312052990061</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.096179695208992</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.771944760165668</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.002533749541287982</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.379361722915605</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1889006896329894</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.570796395396928</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2011483488270092</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.302591674889592</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.77368233250472</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002539946714806697</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.379315696670069</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1889405185927815</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.570796395407675</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.2028859211499613</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_2_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,459 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9903733673316458</v>
+        <v>-2.514900006965806</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.0002537796048658035</v>
+        <v>1.145832441320895</v>
       </c>
       <c r="D1" t="n">
-        <v>-1.40006462893066</v>
+        <v>1.994839032006343</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1709853632432805</v>
+        <v>-2.079632388548868</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796390562869</v>
+        <v>-0.8268105042876529</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.5804230367656859</v>
+        <v>-1.032876358592297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2064119796805995</v>
+        <v>0.2010036197039552</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9921109396706966</v>
+        <v>-2.512902132677649</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0002475824313470903</v>
+        <v>1.145702595947905</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.400018602685125</v>
+        <v>1.995014271304166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1710251922030726</v>
+        <v>-2.078327346145985</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796390573616</v>
+        <v>-0.8231623042822565</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5786854644427337</v>
+        <v>-1.028789307165996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.412823959361199</v>
+        <v>0.4020072394079105</v>
       </c>
       <c r="B3" t="n">
-        <v>1.002947235608045</v>
+        <v>-2.500198147298653</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.000208934022463834</v>
+        <v>1.14487694153623</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.39973156196383</v>
+        <v>1.996128574386479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1712735838156022</v>
+        <v>-2.070028906297448</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796390640639</v>
+        <v>-0.7999643083908415</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.567849168605785</v>
+        <v>-1.002800764307854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6192359390417985</v>
+        <v>0.6030108591118657</v>
       </c>
       <c r="B4" t="n">
-        <v>1.02857456005494</v>
+        <v>-2.469410730581346</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0001175323738254093</v>
+        <v>1.142876013034001</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.399052724311498</v>
+        <v>1.998829027222426</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1718610181641091</v>
+        <v>-2.049918089250791</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796390799146</v>
+        <v>-0.74374522869195</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5422218443963294</v>
+        <v>-0.9398189460060117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.825647918722398</v>
+        <v>0.804014478815821</v>
       </c>
       <c r="B5" t="n">
-        <v>1.07145808442964</v>
+        <v>-2.416401385801538</v>
       </c>
       <c r="C5" t="n">
-        <v>3.541472119404524e-05</v>
+        <v>1.139430842241391</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.397916790239622</v>
+        <v>2.003478629258112</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1728440023712562</v>
+        <v>-2.015291564900971</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796391064382</v>
+        <v>-0.6469480012296422</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4993383204189489</v>
+        <v>-0.8313777295221112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.032059898402997</v>
+        <v>1.005018098519776</v>
       </c>
       <c r="B6" t="n">
-        <v>1.131373702239576</v>
+        <v>-2.339838596621881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002491079710830877</v>
+        <v>1.134454891563672</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.396329696065339</v>
+        <v>2.010194171619677</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1742173994258922</v>
+        <v>-1.965279566170713</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796391434963</v>
+        <v>-0.5071412228180938</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4394227031641362</v>
+        <v>-0.6747532318881582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.238471878083597</v>
+        <v>1.206021718223731</v>
       </c>
       <c r="B7" t="n">
-        <v>1.205945884663518</v>
+        <v>-2.240765983955432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005150748858204336</v>
+        <v>1.128015987764279</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.394354366750301</v>
+        <v>2.018884115316362</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1759267570098149</v>
+        <v>-1.900563802390856</v>
       </c>
       <c r="F7" t="n">
-        <v>1.570796391896196</v>
+        <v>-0.3262305878461942</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3648505214311121</v>
+        <v>-0.4720803884033913</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.444883857764196</v>
+        <v>1.407025337927687</v>
       </c>
       <c r="B8" t="n">
-        <v>1.291185536133739</v>
+        <v>-2.122170462829215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008190880765024157</v>
+        <v>1.120308255717871</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.392096468739544</v>
+        <v>2.029286469443587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1778806363245333</v>
+        <v>-1.823095372680689</v>
       </c>
       <c r="F8" t="n">
-        <v>1.570796392423408</v>
+        <v>-0.1096703250821432</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2796108707506437</v>
+        <v>-0.2294695311311479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.651295837444796</v>
+        <v>1.608028957631642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.382027849918183</v>
+        <v>-1.988550399247785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001143083554970447</v>
+        <v>1.11162405216339</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.389690162800365</v>
+        <v>2.041006669386022</v>
       </c>
       <c r="E9" t="n">
-        <v>0.179962940918031</v>
+        <v>-1.735812679328303</v>
       </c>
       <c r="F9" t="n">
-        <v>1.570796392985272</v>
+        <v>0.1343253655219503</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1887685578078621</v>
+        <v>0.04387703260426856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.857707817125395</v>
+        <v>1.809032577335597</v>
       </c>
       <c r="B10" t="n">
-        <v>1.472870163702626</v>
+        <v>-1.84548376705679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001467079033438478</v>
+        <v>1.102325899457129</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.387283856861185</v>
+        <v>2.053555455020653</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1820452455115286</v>
+        <v>-1.642359341170928</v>
       </c>
       <c r="F10" t="n">
-        <v>1.570796393547136</v>
+        <v>0.3955708760254718</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09792624486508039</v>
+        <v>0.3365484417207223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.064119796805995</v>
+        <v>2.010036197039553</v>
       </c>
       <c r="B11" t="n">
-        <v>1.558109815172848</v>
+        <v>-1.699196304806533</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00177109222412046</v>
+        <v>1.092818419325783</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.385025958850429</v>
+        <v>2.066386748919862</v>
       </c>
       <c r="E11" t="n">
-        <v>0.183999124826247</v>
+        <v>-1.546802106975281</v>
       </c>
       <c r="F11" t="n">
-        <v>1.570796394074348</v>
+        <v>0.662697753694704</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01268659418461193</v>
+        <v>0.6358087028813775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.270531776486594</v>
+        <v>2.211039816743508</v>
       </c>
       <c r="B12" t="n">
-        <v>1.632681997596789</v>
+        <v>-1.556129672615539</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002037059138857806</v>
+        <v>1.083520266619522</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.38305062953539</v>
+        <v>2.078935534554494</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1857084824101697</v>
+        <v>-1.453348768817907</v>
       </c>
       <c r="F12" t="n">
-        <v>1.570796394535581</v>
+        <v>0.9239432641982254</v>
       </c>
       <c r="G12" t="n">
-        <v>0.061885587548412</v>
+        <v>0.9284801119978314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.476943756167194</v>
+        <v>2.412043436447463</v>
       </c>
       <c r="B13" t="n">
-        <v>1.692597615406726</v>
+        <v>-1.422509609034109</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002250752388746849</v>
+        <v>1.074836063065042</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.381463535361107</v>
+        <v>2.090655734496928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1870818794648058</v>
+        <v>-1.366066075465521</v>
       </c>
       <c r="F13" t="n">
-        <v>1.570796394906162</v>
+        <v>1.167938954802319</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1218012048032248</v>
+        <v>1.201826675733248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.683355735847794</v>
+        <v>2.613047056151418</v>
       </c>
       <c r="B14" t="n">
-        <v>1.735481139781426</v>
+        <v>-1.303914087907893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002403699483766303</v>
+        <v>1.067128331018633</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.380327601289231</v>
+        <v>2.101058088624153</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1880648636719529</v>
+        <v>-1.288597645755354</v>
       </c>
       <c r="F14" t="n">
-        <v>1.570796395171398</v>
+        <v>1.384499217566368</v>
       </c>
       <c r="G14" t="n">
-        <v>0.164684728780605</v>
+        <v>1.444437533005489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.889767715528393</v>
+        <v>2.814050675855373</v>
       </c>
       <c r="B15" t="n">
-        <v>1.761108464228321</v>
+        <v>-1.204841475241442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002495101132404725</v>
+        <v>1.06068942721924</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.379648763636899</v>
+        <v>2.109748032320839</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1886522980204598</v>
+        <v>-1.223881881975496</v>
       </c>
       <c r="F15" t="n">
-        <v>1.570796395329905</v>
+        <v>1.56540985253827</v>
       </c>
       <c r="G15" t="n">
-        <v>0.190312052990061</v>
+        <v>1.647110376490259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.096179695208992</v>
+        <v>3.015054295559329</v>
       </c>
       <c r="B16" t="n">
-        <v>1.771944760165668</v>
+        <v>-1.128278686061786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002533749541287982</v>
+        <v>1.055713476541521</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.379361722915605</v>
+        <v>2.116463574682403</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1889006896329894</v>
+        <v>-1.173869883245238</v>
       </c>
       <c r="F16" t="n">
-        <v>1.570796395396928</v>
+        <v>1.705216630949818</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2011483488270092</v>
+        <v>1.803734874124211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.302591674889592</v>
+        <v>3.216057915263284</v>
       </c>
       <c r="B17" t="n">
-        <v>1.77368233250472</v>
+        <v>-1.075269341281979</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002539946714806697</v>
+        <v>1.052268305748911</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.379315696670069</v>
+        <v>2.121113176718089</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1889405185927815</v>
+        <v>-1.139243358895419</v>
       </c>
       <c r="F17" t="n">
-        <v>1.570796395407675</v>
+        <v>1.802013858412123</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2028859211499613</v>
+        <v>1.91217609060811</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.417061534967239</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.04448192456467</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.050267377246682</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.123813629554037</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.119132541848761</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.858232938111019</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.975157908909956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.618065154671195</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.031777939185674</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.049441722835007</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.124927932636349</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.110834102000224</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.88143093400243</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.001146451768096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.81906877437515</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.029780064897518</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.049311877462017</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.125103171934172</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.109529059597341</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.885079134007829</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.005233503194397</v>
       </c>
     </row>
   </sheetData>
